--- a/Value_Averaging.xlsx
+++ b/Value_Averaging.xlsx
@@ -36,12 +36,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -60,7 +60,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -68,23 +106,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,10 +166,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -112,78 +181,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,13 +205,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,169 +253,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,6 +396,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -414,25 +423,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -453,22 +449,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,147 +487,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -978,13 +978,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="4.4" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.9" style="1" customWidth="1"/>
@@ -1013,7 +1013,6 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <f>ROW(A3)-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2">
@@ -1024,6 +1023,20 @@
       </c>
       <c r="D3" s="3">
         <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44910</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>503.73</v>
       </c>
     </row>
   </sheetData>

--- a/Value_Averaging.xlsx
+++ b/Value_Averaging.xlsx
@@ -37,11 +37,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -61,6 +61,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -68,7 +83,91 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,107 +189,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,25 +205,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,7 +313,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,145 +367,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,11 +425,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,9 +479,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,8 +491,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,142 +501,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -978,13 +978,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="4.4" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.9" style="1" customWidth="1"/>
@@ -1039,6 +1039,11 @@
         <v>503.73</v>
       </c>
     </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:D1"/>

--- a/Value_Averaging.xlsx
+++ b/Value_Averaging.xlsx
@@ -19,7 +19,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>嘉实纳斯达克100指数(QDII)A(016532)</t>
+    <t>VOO</t>
   </si>
   <si>
     <t>日期</t>
@@ -35,13 +35,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="\$#,##0.00;\-\$#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -61,7 +62,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -75,112 +167,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -189,8 +175,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,187 +206,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,15 +424,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -447,17 +439,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,6 +458,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -501,142 +502,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,17 +647,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="25" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -978,13 +982,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="4.4" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.9" style="1" customWidth="1"/>
@@ -1016,32 +1020,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>44880</v>
+        <v>45247</v>
       </c>
       <c r="C3" s="3">
-        <v>500</v>
+        <v>2700</v>
       </c>
-      <c r="D3" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>44910</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="3">
-        <v>503.73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="D3" s="4">
+        <v>2700</v>
       </c>
     </row>
   </sheetData>

--- a/Value_Averaging.xlsx
+++ b/Value_Averaging.xlsx
@@ -37,12 +37,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="\$#,##0.00;\-\$#,##0.00"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -61,6 +61,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -68,6 +106,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -76,9 +160,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -90,108 +189,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,115 +206,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,31 +380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,43 +390,43 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -439,15 +469,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -463,17 +484,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,144 +517,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -647,11 +662,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -982,13 +1000,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="12.75" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="4.4" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.9" style="1" customWidth="1"/>
@@ -1005,34 +1023,59 @@
       </c>
     </row>
     <row r="2" spans="2:4">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="D2" s="1">
+        <v>7510</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>45247</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B4" s="3">
+        <v>44973</v>
+      </c>
+      <c r="C4" s="4">
         <v>2700</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D4" s="5">
         <v>2700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44981</v>
+      </c>
+      <c r="D5" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="3">
+        <v>45055</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3911</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A1:A3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Value_Averaging.xlsx
+++ b/Value_Averaging.xlsx
@@ -38,11 +38,11 @@
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="\$#,##0.00;\-\$#,##0.00"/>
     <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -61,31 +61,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,77 +84,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,17 +100,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,13 +206,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,7 +296,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,43 +338,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,103 +380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,6 +439,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -455,21 +464,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -480,15 +474,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,147 +497,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1000,13 +1000,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="12.75" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="4.4" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.9" style="1" customWidth="1"/>
@@ -1025,7 +1025,7 @@
     <row r="2" spans="2:4">
       <c r="B2" s="2"/>
       <c r="D2" s="1">
-        <v>7510</v>
+        <v>13761</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -1070,6 +1070,14 @@
       </c>
       <c r="D6" s="5">
         <v>3911</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="3">
+        <v>45135</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6250</v>
       </c>
     </row>
   </sheetData>

--- a/Value_Averaging.xlsx
+++ b/Value_Averaging.xlsx
@@ -38,11 +38,11 @@
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="\$#,##0.00;\-\$#,##0.00"/>
     <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -56,13 +56,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,6 +77,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -93,13 +168,14 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -107,91 +183,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,43 +206,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,139 +344,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,6 +464,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -497,162 +512,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1000,13 +1000,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="12.75" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="4.4" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.9" style="1" customWidth="1"/>
@@ -1025,7 +1025,7 @@
     <row r="2" spans="2:4">
       <c r="B2" s="2"/>
       <c r="D2" s="1">
-        <v>13761</v>
+        <v>23812</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -1078,6 +1078,14 @@
       </c>
       <c r="D7" s="5">
         <v>6250</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="3">
+        <v>45211</v>
+      </c>
+      <c r="D8" s="5">
+        <v>10051</v>
       </c>
     </row>
   </sheetData>

--- a/Value_Averaging.xlsx
+++ b/Value_Averaging.xlsx
@@ -37,11 +37,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="\$#,##0.00;\-\$#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -61,9 +61,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,8 +84,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,6 +123,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -107,15 +161,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -124,74 +191,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,187 +206,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,35 +415,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,21 +435,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,6 +468,45 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -517,142 +517,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1000,13 +1000,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="12.75" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="4.4" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.9" style="1" customWidth="1"/>
@@ -1025,7 +1025,7 @@
     <row r="2" spans="2:4">
       <c r="B2" s="2"/>
       <c r="D2" s="1">
-        <v>23812</v>
+        <v>68151</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -1086,6 +1086,14 @@
       </c>
       <c r="D8" s="5">
         <v>10051</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="3">
+        <v>45315</v>
+      </c>
+      <c r="D9" s="5">
+        <v>44339</v>
       </c>
     </row>
   </sheetData>

--- a/Value_Averaging.xlsx
+++ b/Value_Averaging.xlsx
@@ -38,11 +38,11 @@
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="\$#,##0.00;\-\$#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,7 +62,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -76,122 +152,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,187 +206,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,6 +415,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -435,6 +450,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,36 +504,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -517,142 +517,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1000,10 +1000,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="12.75" outlineLevelCol="3"/>
@@ -1025,7 +1025,7 @@
     <row r="2" spans="2:4">
       <c r="B2" s="2"/>
       <c r="D2" s="1">
-        <v>68151</v>
+        <v>73825</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -1094,6 +1094,14 @@
       </c>
       <c r="D9" s="5">
         <v>44339</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="3">
+        <v>45350</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5674</v>
       </c>
     </row>
   </sheetData>

--- a/Value_Averaging.xlsx
+++ b/Value_Averaging.xlsx
@@ -37,12 +37,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="\$#,##0.00;\-\$#,##0.00"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -69,6 +69,97 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -83,9 +174,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,97 +191,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -212,19 +212,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,31 +320,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,121 +368,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,17 +415,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -434,7 +428,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,6 +478,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -491,15 +500,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,139 +517,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1000,10 +1000,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="12.75" outlineLevelCol="3"/>
@@ -1025,7 +1025,7 @@
     <row r="2" spans="2:4">
       <c r="B2" s="2"/>
       <c r="D2" s="1">
-        <v>73825</v>
+        <v>76933</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -1102,6 +1102,14 @@
       </c>
       <c r="D10" s="5">
         <v>5674</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="3">
+        <v>45446</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3108</v>
       </c>
     </row>
   </sheetData>

--- a/Value_Averaging.xlsx
+++ b/Value_Averaging.xlsx
@@ -37,12 +37,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="\$#,##0.00;\-\$#,##0.00"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -63,6 +63,120 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -77,120 +191,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -212,181 +212,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,11 +415,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -428,7 +434,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,21 +484,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -512,144 +503,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1000,10 +1000,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="12.75" outlineLevelCol="3"/>
@@ -1025,7 +1025,7 @@
     <row r="2" spans="2:4">
       <c r="B2" s="2"/>
       <c r="D2" s="1">
-        <v>76933</v>
+        <v>79860</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -1110,6 +1110,14 @@
       </c>
       <c r="D11" s="5">
         <v>3108</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="3">
+        <v>45519</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2927</v>
       </c>
     </row>
   </sheetData>
